--- a/易识测试用例-v2.12-4月.xlsx
+++ b/易识测试用例-v2.12-4月.xlsx
@@ -4887,9 +4887,9 @@
   <dimension ref="A1:P573"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K118" sqref="K118"/>
+      <selection pane="bottomLeft" activeCell="H209" sqref="H209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -8131,7 +8131,6 @@
       <c r="F117" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G117" s="3"/>
       <c r="K117" s="2" t="s">
         <v>400</v>
       </c>
